--- a/Bot_lazada/Data_lazada/lazada.xlsx
+++ b/Bot_lazada/Data_lazada/lazada.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="https://www.lazada.co.th/shop-d" sheetId="1" r:id="rId1"/>
+    <sheet name="https://www.lazada.co.th/shop-p" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -372,38 +372,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FK4"/>
+  <dimension ref="A1:IN4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>JrAyI</v>
+        <v>M4pDu</v>
       </c>
       <c r="B1" t="str">
-        <v>M4pDu</v>
+        <v>M4pDu 2</v>
       </c>
       <c r="C1" t="str">
-        <v>M4pDu 2</v>
+        <v>pI6oU</v>
       </c>
       <c r="D1" t="str">
-        <v>pI6oU</v>
+        <v>ant-select-selection-item</v>
       </c>
       <c r="E1" t="str">
-        <v>ant-select-selection-item</v>
+        <v>i9TkI</v>
       </c>
       <c r="F1" t="str">
-        <v>i9TkI</v>
+        <v>_95X4G href</v>
       </c>
       <c r="G1" t="str">
-        <v>_95X4G href</v>
+        <v>jBwCF src</v>
       </c>
       <c r="H1" t="str">
-        <v>jBwCF src</v>
+        <v>RfADt</v>
       </c>
       <c r="I1" t="str">
-        <v>RfADt</v>
+        <v>ooOxS</v>
       </c>
       <c r="J1" t="str">
-        <v>ooOxS</v>
+        <v>IcOsH</v>
       </c>
       <c r="K1" t="str">
         <v>oa6ri</v>
@@ -421,480 +421,723 @@
         <v>ooOxS 2</v>
       </c>
       <c r="P1" t="str">
-        <v>oa6ri 2</v>
+        <v>_95X4G href 3</v>
       </c>
       <c r="Q1" t="str">
-        <v>_95X4G href 3</v>
+        <v>jBwCF src 3</v>
       </c>
       <c r="R1" t="str">
-        <v>jBwCF src 3</v>
+        <v>RfADt 3</v>
       </c>
       <c r="S1" t="str">
-        <v>RfADt 3</v>
+        <v>ooOxS 3</v>
       </c>
       <c r="T1" t="str">
-        <v>ooOxS 3</v>
+        <v>IcOsH 3</v>
       </c>
       <c r="U1" t="str">
-        <v>IcOsH</v>
+        <v>_95X4G href 4</v>
       </c>
       <c r="V1" t="str">
-        <v>_95X4G href 4</v>
+        <v>jBwCF src 4</v>
       </c>
       <c r="W1" t="str">
-        <v>jBwCF src 4</v>
+        <v>RfADt 4</v>
       </c>
       <c r="X1" t="str">
-        <v>RfADt 4</v>
+        <v>ooOxS 4</v>
       </c>
       <c r="Y1" t="str">
-        <v>ooOxS 4</v>
+        <v>IcOsH 4</v>
       </c>
       <c r="Z1" t="str">
-        <v>oa6ri 4</v>
+        <v>_95X4G href 5</v>
       </c>
       <c r="AA1" t="str">
-        <v>_95X4G href 5</v>
+        <v>jBwCF src 5</v>
       </c>
       <c r="AB1" t="str">
-        <v>jBwCF src 5</v>
+        <v>jBwCF src 6</v>
       </c>
       <c r="AC1" t="str">
+        <v>jBwCF src 7</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>jBwCF src 8</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>jBwCF src 9</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>jBwCF src 10</v>
+      </c>
+      <c r="AG1" t="str">
         <v>RfADt 5</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AH1" t="str">
         <v>ooOxS 5</v>
       </c>
-      <c r="AE1" t="str">
-        <v>oa6ri 5</v>
-      </c>
-      <c r="AF1" t="str">
+      <c r="AI1" t="str">
+        <v>IcOsH 5</v>
+      </c>
+      <c r="AJ1" t="str">
         <v>_95X4G href 6</v>
       </c>
-      <c r="AG1" t="str">
-        <v>jBwCF src 6</v>
-      </c>
-      <c r="AH1" t="str">
+      <c r="AK1" t="str">
+        <v>jBwCF src 11</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>jBwCF src 12</v>
+      </c>
+      <c r="AM1" t="str">
         <v>RfADt 6</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AN1" t="str">
         <v>ooOxS 6</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AO1" t="str">
+        <v>_1cEkb</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>qzqFw</v>
+      </c>
+      <c r="AQ1" t="str">
         <v>oa6ri 6</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AR1" t="str">
         <v>_95X4G href 7</v>
       </c>
-      <c r="AL1" t="str">
-        <v>jBwCF src 7</v>
-      </c>
-      <c r="AM1" t="str">
+      <c r="AS1" t="str">
+        <v>jBwCF src 13</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>jBwCF src 14</v>
+      </c>
+      <c r="AU1" t="str">
         <v>RfADt 7</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AV1" t="str">
         <v>ooOxS 7</v>
       </c>
-      <c r="AO1" t="str">
-        <v>oa6ri 7</v>
-      </c>
-      <c r="AP1" t="str">
+      <c r="AW1" t="str">
         <v>_95X4G href 8</v>
       </c>
-      <c r="AQ1" t="str">
-        <v>jBwCF src 8</v>
-      </c>
-      <c r="AR1" t="str">
+      <c r="AX1" t="str">
+        <v>jBwCF src 15</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>jBwCF src 16</v>
+      </c>
+      <c r="AZ1" t="str">
         <v>RfADt 8</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="BA1" t="str">
         <v>ooOxS 8</v>
       </c>
-      <c r="AT1" t="str">
-        <v>IcOsH 2</v>
-      </c>
-      <c r="AU1" t="str">
+      <c r="BB1" t="str">
+        <v>_1cEkb 2</v>
+      </c>
+      <c r="BC1" t="str">
         <v>_95X4G href 9</v>
       </c>
-      <c r="AV1" t="str">
-        <v>jBwCF src 9</v>
-      </c>
-      <c r="AW1" t="str">
+      <c r="BD1" t="str">
+        <v>jBwCF src 17</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>jBwCF src 18</v>
+      </c>
+      <c r="BF1" t="str">
         <v>RfADt 9</v>
       </c>
-      <c r="AX1" t="str">
+      <c r="BG1" t="str">
         <v>ooOxS 9</v>
       </c>
-      <c r="AY1" t="str">
+      <c r="BH1" t="str">
+        <v>oa6ri 9</v>
+      </c>
+      <c r="BI1" t="str">
         <v>_95X4G href 10</v>
       </c>
-      <c r="AZ1" t="str">
+      <c r="BJ1" t="str">
+        <v>jBwCF src 19</v>
+      </c>
+      <c r="BK1" t="str">
         <v>RfADt 10</v>
       </c>
-      <c r="BA1" t="str">
+      <c r="BL1" t="str">
         <v>ooOxS 10</v>
       </c>
-      <c r="BB1" t="str">
+      <c r="BM1" t="str">
+        <v>oa6ri 10</v>
+      </c>
+      <c r="BN1" t="str">
         <v>_95X4G href 11</v>
       </c>
-      <c r="BC1" t="str">
+      <c r="BO1" t="str">
+        <v>jBwCF src 20</v>
+      </c>
+      <c r="BP1" t="str">
         <v>RfADt 11</v>
       </c>
-      <c r="BD1" t="str">
+      <c r="BQ1" t="str">
         <v>ooOxS 11</v>
       </c>
-      <c r="BE1" t="str">
+      <c r="BR1" t="str">
+        <v>qzqFw 2</v>
+      </c>
+      <c r="BS1" t="str">
         <v>_95X4G href 12</v>
       </c>
-      <c r="BF1" t="str">
+      <c r="BT1" t="str">
+        <v>jBwCF src 21</v>
+      </c>
+      <c r="BU1" t="str">
+        <v>jBwCF src 22</v>
+      </c>
+      <c r="BV1" t="str">
         <v>RfADt 12</v>
       </c>
-      <c r="BG1" t="str">
-        <v>ooOxS 12</v>
-      </c>
-      <c r="BH1" t="str">
+      <c r="BW1" t="str">
+        <v>IcOsH 7</v>
+      </c>
+      <c r="BX1" t="str">
         <v>_95X4G href 13</v>
       </c>
-      <c r="BI1" t="str">
+      <c r="BY1" t="str">
+        <v>jBwCF src 23</v>
+      </c>
+      <c r="BZ1" t="str">
+        <v>jBwCF src 24</v>
+      </c>
+      <c r="CA1" t="str">
+        <v>jBwCF src 25</v>
+      </c>
+      <c r="CB1" t="str">
+        <v>jBwCF src 26</v>
+      </c>
+      <c r="CC1" t="str">
         <v>RfADt 13</v>
       </c>
-      <c r="BJ1" t="str">
+      <c r="CD1" t="str">
         <v>ooOxS 13</v>
       </c>
-      <c r="BK1" t="str">
+      <c r="CE1" t="str">
+        <v>IcOsH 8</v>
+      </c>
+      <c r="CF1" t="str">
         <v>_95X4G href 14</v>
       </c>
-      <c r="BL1" t="str">
+      <c r="CG1" t="str">
+        <v>jBwCF src 27</v>
+      </c>
+      <c r="CH1" t="str">
+        <v>jBwCF src 28</v>
+      </c>
+      <c r="CI1" t="str">
+        <v>jBwCF src 29</v>
+      </c>
+      <c r="CJ1" t="str">
+        <v>jBwCF src 30</v>
+      </c>
+      <c r="CK1" t="str">
         <v>RfADt 14</v>
       </c>
-      <c r="BM1" t="str">
+      <c r="CL1" t="str">
         <v>ooOxS 14</v>
       </c>
-      <c r="BN1" t="str">
-        <v>IcOsH 3</v>
-      </c>
-      <c r="BO1" t="str">
-        <v>oa6ri 14</v>
-      </c>
-      <c r="BP1" t="str">
+      <c r="CM1" t="str">
         <v>_95X4G href 15</v>
       </c>
-      <c r="BQ1" t="str">
+      <c r="CN1" t="str">
+        <v>jBwCF src 31</v>
+      </c>
+      <c r="CO1" t="str">
         <v>RfADt 15</v>
       </c>
-      <c r="BR1" t="str">
+      <c r="CP1" t="str">
         <v>ooOxS 15</v>
       </c>
-      <c r="BS1" t="str">
-        <v>IcOsH 4</v>
-      </c>
-      <c r="BT1" t="str">
+      <c r="CQ1" t="str">
+        <v>qzqFw 3</v>
+      </c>
+      <c r="CR1" t="str">
         <v>_95X4G href 16</v>
       </c>
-      <c r="BU1" t="str">
+      <c r="CS1" t="str">
+        <v>jBwCF src 32</v>
+      </c>
+      <c r="CT1" t="str">
+        <v>jBwCF src 33</v>
+      </c>
+      <c r="CU1" t="str">
+        <v>jBwCF src 34</v>
+      </c>
+      <c r="CV1" t="str">
         <v>RfADt 16</v>
       </c>
-      <c r="BV1" t="str">
+      <c r="CW1" t="str">
         <v>ooOxS 16</v>
       </c>
-      <c r="BW1" t="str">
+      <c r="CX1" t="str">
         <v>_95X4G href 17</v>
       </c>
-      <c r="BX1" t="str">
+      <c r="CY1" t="str">
+        <v>jBwCF src 35</v>
+      </c>
+      <c r="CZ1" t="str">
+        <v>jBwCF src 36</v>
+      </c>
+      <c r="DA1" t="str">
+        <v>jBwCF src 37</v>
+      </c>
+      <c r="DB1" t="str">
+        <v>jBwCF src 38</v>
+      </c>
+      <c r="DC1" t="str">
+        <v>jBwCF src 39</v>
+      </c>
+      <c r="DD1" t="str">
         <v>RfADt 17</v>
       </c>
-      <c r="BY1" t="str">
+      <c r="DE1" t="str">
         <v>ooOxS 17</v>
       </c>
-      <c r="BZ1" t="str">
+      <c r="DF1" t="str">
         <v>_95X4G href 18</v>
       </c>
-      <c r="CA1" t="str">
+      <c r="DG1" t="str">
+        <v>jBwCF src 40</v>
+      </c>
+      <c r="DH1" t="str">
+        <v>jBwCF src 41</v>
+      </c>
+      <c r="DI1" t="str">
+        <v>jBwCF src 42</v>
+      </c>
+      <c r="DJ1" t="str">
         <v>RfADt 18</v>
       </c>
-      <c r="CB1" t="str">
+      <c r="DK1" t="str">
         <v>ooOxS 18</v>
       </c>
-      <c r="CC1" t="str">
-        <v>oa6ri 18</v>
-      </c>
-      <c r="CD1" t="str">
+      <c r="DL1" t="str">
+        <v>IcOsH 9</v>
+      </c>
+      <c r="DM1" t="str">
+        <v>_1cEkb 4</v>
+      </c>
+      <c r="DN1" t="str">
+        <v>qzqFw 4</v>
+      </c>
+      <c r="DO1" t="str">
         <v>_95X4G href 19</v>
       </c>
-      <c r="CE1" t="str">
+      <c r="DP1" t="str">
+        <v>jBwCF src 43</v>
+      </c>
+      <c r="DQ1" t="str">
+        <v>jBwCF src 44</v>
+      </c>
+      <c r="DR1" t="str">
+        <v>jBwCF src 45</v>
+      </c>
+      <c r="DS1" t="str">
+        <v>jBwCF src 46</v>
+      </c>
+      <c r="DT1" t="str">
+        <v>jBwCF src 47</v>
+      </c>
+      <c r="DU1" t="str">
+        <v>jBwCF src 48</v>
+      </c>
+      <c r="DV1" t="str">
+        <v>jBwCF src 49</v>
+      </c>
+      <c r="DW1" t="str">
         <v>RfADt 19</v>
       </c>
-      <c r="CF1" t="str">
+      <c r="DX1" t="str">
         <v>ooOxS 19</v>
       </c>
-      <c r="CG1" t="str">
-        <v>IcOsH 5</v>
-      </c>
-      <c r="CH1" t="str">
+      <c r="DY1" t="str">
+        <v>IcOsH 10</v>
+      </c>
+      <c r="DZ1" t="str">
         <v>_95X4G href 20</v>
       </c>
-      <c r="CI1" t="str">
+      <c r="EA1" t="str">
+        <v>jBwCF src 50</v>
+      </c>
+      <c r="EB1" t="str">
         <v>RfADt 20</v>
       </c>
-      <c r="CJ1" t="str">
+      <c r="EC1" t="str">
+        <v>ooOxS 20</v>
+      </c>
+      <c r="ED1" t="str">
         <v>_95X4G href 21</v>
       </c>
-      <c r="CK1" t="str">
+      <c r="EE1" t="str">
+        <v>jBwCF src 51</v>
+      </c>
+      <c r="EF1" t="str">
         <v>RfADt 21</v>
       </c>
-      <c r="CL1" t="str">
+      <c r="EG1" t="str">
+        <v>ooOxS 21</v>
+      </c>
+      <c r="EH1" t="str">
         <v>_95X4G href 22</v>
       </c>
-      <c r="CM1" t="str">
+      <c r="EI1" t="str">
+        <v>jBwCF src 52</v>
+      </c>
+      <c r="EJ1" t="str">
+        <v>jBwCF src 53</v>
+      </c>
+      <c r="EK1" t="str">
+        <v>jBwCF src 55</v>
+      </c>
+      <c r="EL1" t="str">
+        <v>jBwCF src 57</v>
+      </c>
+      <c r="EM1" t="str">
         <v>RfADt 22</v>
       </c>
-      <c r="CN1" t="str">
+      <c r="EN1" t="str">
         <v>ooOxS 22</v>
       </c>
-      <c r="CO1" t="str">
-        <v>oa6ri 22</v>
-      </c>
-      <c r="CP1" t="str">
+      <c r="EO1" t="str">
         <v>_95X4G href 23</v>
       </c>
-      <c r="CQ1" t="str">
+      <c r="EP1" t="str">
+        <v>jBwCF src 58</v>
+      </c>
+      <c r="EQ1" t="str">
         <v>RfADt 23</v>
       </c>
-      <c r="CR1" t="str">
+      <c r="ER1" t="str">
         <v>ooOxS 23</v>
       </c>
-      <c r="CS1" t="str">
-        <v>IcOsH 6</v>
-      </c>
-      <c r="CT1" t="str">
-        <v>qzqFw</v>
-      </c>
-      <c r="CU1" t="str">
+      <c r="ES1" t="str">
         <v>_95X4G href 24</v>
       </c>
-      <c r="CV1" t="str">
+      <c r="ET1" t="str">
+        <v>jBwCF src 59</v>
+      </c>
+      <c r="EU1" t="str">
+        <v>jBwCF src 60</v>
+      </c>
+      <c r="EV1" t="str">
+        <v>jBwCF src 62</v>
+      </c>
+      <c r="EW1" t="str">
         <v>RfADt 24</v>
       </c>
-      <c r="CW1" t="str">
+      <c r="EX1" t="str">
         <v>ooOxS 24</v>
       </c>
-      <c r="CX1" t="str">
-        <v>oa6ri 24</v>
-      </c>
-      <c r="CY1" t="str">
+      <c r="EY1" t="str">
         <v>_95X4G href 25</v>
       </c>
-      <c r="CZ1" t="str">
+      <c r="EZ1" t="str">
+        <v>jBwCF src 67</v>
+      </c>
+      <c r="FA1" t="str">
+        <v>jBwCF src 68</v>
+      </c>
+      <c r="FB1" t="str">
         <v>RfADt 25</v>
       </c>
-      <c r="DA1" t="str">
+      <c r="FC1" t="str">
         <v>ooOxS 25</v>
       </c>
-      <c r="DB1" t="str">
+      <c r="FD1" t="str">
         <v>_95X4G href 26</v>
       </c>
-      <c r="DC1" t="str">
+      <c r="FE1" t="str">
+        <v>jBwCF src 71</v>
+      </c>
+      <c r="FF1" t="str">
+        <v>jBwCF src 72</v>
+      </c>
+      <c r="FG1" t="str">
         <v>RfADt 26</v>
       </c>
-      <c r="DD1" t="str">
+      <c r="FH1" t="str">
         <v>ooOxS 26</v>
       </c>
-      <c r="DE1" t="str">
-        <v>IcOsH 7</v>
-      </c>
-      <c r="DF1" t="str">
-        <v>oa6ri 26</v>
-      </c>
-      <c r="DG1" t="str">
+      <c r="FI1" t="str">
         <v>_95X4G href 27</v>
       </c>
-      <c r="DH1" t="str">
+      <c r="FJ1" t="str">
+        <v>jBwCF src 73</v>
+      </c>
+      <c r="FK1" t="str">
+        <v>jBwCF src 74</v>
+      </c>
+      <c r="FL1" t="str">
+        <v>jBwCF src 75</v>
+      </c>
+      <c r="FM1" t="str">
+        <v>jBwCF src 76</v>
+      </c>
+      <c r="FN1" t="str">
+        <v>jBwCF src 77</v>
+      </c>
+      <c r="FO1" t="str">
         <v>RfADt 27</v>
       </c>
-      <c r="DI1" t="str">
+      <c r="FP1" t="str">
         <v>ooOxS 27</v>
       </c>
-      <c r="DJ1" t="str">
-        <v>IcOsH 8</v>
-      </c>
-      <c r="DK1" t="str">
+      <c r="FQ1" t="str">
         <v>_95X4G href 28</v>
       </c>
-      <c r="DL1" t="str">
+      <c r="FR1" t="str">
+        <v>jBwCF src 78</v>
+      </c>
+      <c r="FS1" t="str">
         <v>RfADt 28</v>
       </c>
-      <c r="DM1" t="str">
+      <c r="FT1" t="str">
         <v>ooOxS 28</v>
       </c>
-      <c r="DN1" t="str">
-        <v>IcOsH 9</v>
-      </c>
-      <c r="DO1" t="str">
+      <c r="FU1" t="str">
         <v>_95X4G href 29</v>
       </c>
-      <c r="DP1" t="str">
+      <c r="FV1" t="str">
+        <v>jBwCF src 79</v>
+      </c>
+      <c r="FW1" t="str">
+        <v>jBwCF src 80</v>
+      </c>
+      <c r="FX1" t="str">
         <v>RfADt 29</v>
       </c>
-      <c r="DQ1" t="str">
+      <c r="FY1" t="str">
         <v>ooOxS 29</v>
       </c>
-      <c r="DR1" t="str">
+      <c r="FZ1" t="str">
         <v>_95X4G href 30</v>
       </c>
-      <c r="DS1" t="str">
+      <c r="GA1" t="str">
+        <v>jBwCF src 84</v>
+      </c>
+      <c r="GB1" t="str">
+        <v>jBwCF src 85</v>
+      </c>
+      <c r="GC1" t="str">
+        <v>jBwCF src 86</v>
+      </c>
+      <c r="GD1" t="str">
+        <v>jBwCF src 87</v>
+      </c>
+      <c r="GE1" t="str">
         <v>RfADt 30</v>
       </c>
-      <c r="DT1" t="str">
+      <c r="GF1" t="str">
+        <v>ooOxS 30</v>
+      </c>
+      <c r="GG1" t="str">
         <v>_95X4G href 31</v>
       </c>
-      <c r="DU1" t="str">
+      <c r="GH1" t="str">
+        <v>jBwCF src 88</v>
+      </c>
+      <c r="GI1" t="str">
         <v>RfADt 31</v>
       </c>
-      <c r="DV1" t="str">
+      <c r="GJ1" t="str">
         <v>ooOxS 31</v>
       </c>
-      <c r="DW1" t="str">
+      <c r="GK1" t="str">
         <v>_95X4G href 32</v>
       </c>
-      <c r="DX1" t="str">
+      <c r="GL1" t="str">
+        <v>jBwCF src 89</v>
+      </c>
+      <c r="GM1" t="str">
+        <v>jBwCF src 90</v>
+      </c>
+      <c r="GN1" t="str">
+        <v>jBwCF src 91</v>
+      </c>
+      <c r="GO1" t="str">
+        <v>jBwCF src 92</v>
+      </c>
+      <c r="GP1" t="str">
+        <v>jBwCF src 93</v>
+      </c>
+      <c r="GQ1" t="str">
         <v>RfADt 32</v>
       </c>
-      <c r="DY1" t="str">
+      <c r="GR1" t="str">
         <v>ooOxS 32</v>
       </c>
-      <c r="DZ1" t="str">
+      <c r="GS1" t="str">
         <v>_95X4G href 33</v>
       </c>
-      <c r="EA1" t="str">
+      <c r="GT1" t="str">
+        <v>jBwCF src 94</v>
+      </c>
+      <c r="GU1" t="str">
+        <v>jBwCF src 95</v>
+      </c>
+      <c r="GV1" t="str">
+        <v>jBwCF src 96</v>
+      </c>
+      <c r="GW1" t="str">
         <v>RfADt 33</v>
       </c>
-      <c r="EB1" t="str">
+      <c r="GX1" t="str">
         <v>ooOxS 33</v>
       </c>
-      <c r="EC1" t="str">
+      <c r="GY1" t="str">
         <v>_95X4G href 34</v>
       </c>
-      <c r="ED1" t="str">
+      <c r="GZ1" t="str">
+        <v>jBwCF src 97</v>
+      </c>
+      <c r="HA1" t="str">
+        <v>jBwCF src 98</v>
+      </c>
+      <c r="HB1" t="str">
+        <v>jBwCF src 99</v>
+      </c>
+      <c r="HC1" t="str">
+        <v>jBwCF src 100</v>
+      </c>
+      <c r="HD1" t="str">
         <v>RfADt 34</v>
       </c>
-      <c r="EE1" t="str">
+      <c r="HE1" t="str">
         <v>ooOxS 34</v>
       </c>
-      <c r="EF1" t="str">
+      <c r="HF1" t="str">
         <v>_95X4G href 35</v>
       </c>
-      <c r="EG1" t="str">
+      <c r="HG1" t="str">
+        <v>jBwCF src 101</v>
+      </c>
+      <c r="HH1" t="str">
+        <v>jBwCF src 102</v>
+      </c>
+      <c r="HI1" t="str">
         <v>RfADt 35</v>
       </c>
-      <c r="EH1" t="str">
+      <c r="HJ1" t="str">
         <v>ooOxS 35</v>
       </c>
-      <c r="EI1" t="str">
-        <v>IcOsH 15</v>
-      </c>
-      <c r="EJ1" t="str">
+      <c r="HK1" t="str">
         <v>_95X4G href 36</v>
       </c>
-      <c r="EK1" t="str">
+      <c r="HL1" t="str">
+        <v>jBwCF src 103</v>
+      </c>
+      <c r="HM1" t="str">
         <v>RfADt 36</v>
       </c>
-      <c r="EL1" t="str">
+      <c r="HN1" t="str">
         <v>ooOxS 36</v>
       </c>
-      <c r="EM1" t="str">
+      <c r="HO1" t="str">
         <v>_95X4G href 37</v>
       </c>
-      <c r="EN1" t="str">
+      <c r="HP1" t="str">
+        <v>jBwCF src 104</v>
+      </c>
+      <c r="HQ1" t="str">
         <v>RfADt 37</v>
       </c>
-      <c r="EO1" t="str">
+      <c r="HR1" t="str">
         <v>ooOxS 37</v>
       </c>
-      <c r="EP1" t="str">
+      <c r="HS1" t="str">
         <v>_95X4G href 38</v>
       </c>
-      <c r="EQ1" t="str">
+      <c r="HT1" t="str">
+        <v>jBwCF src 105</v>
+      </c>
+      <c r="HU1" t="str">
         <v>RfADt 38</v>
       </c>
-      <c r="ER1" t="str">
+      <c r="HV1" t="str">
         <v>ooOxS 38</v>
       </c>
-      <c r="ES1" t="str">
+      <c r="HW1" t="str">
         <v>_95X4G href 39</v>
       </c>
-      <c r="ET1" t="str">
+      <c r="HX1" t="str">
+        <v>jBwCF src 111</v>
+      </c>
+      <c r="HY1" t="str">
         <v>RfADt 39</v>
       </c>
-      <c r="EU1" t="str">
+      <c r="HZ1" t="str">
         <v>ooOxS 39</v>
       </c>
-      <c r="EV1" t="str">
+      <c r="IA1" t="str">
         <v>_95X4G href 40</v>
       </c>
-      <c r="EW1" t="str">
+      <c r="IB1" t="str">
+        <v>jBwCF src 112</v>
+      </c>
+      <c r="IC1" t="str">
         <v>tablescraper-next-button</v>
       </c>
-      <c r="EX1" t="str">
+      <c r="ID1" t="str">
         <v>ooOxS 40</v>
       </c>
-      <c r="EY1" t="str">
+      <c r="IE1" t="str">
         <v>ant-pagination-item</v>
       </c>
-      <c r="EZ1" t="str">
+      <c r="IF1" t="str">
         <v>ant-pagination-item href</v>
       </c>
-      <c r="FA1" t="str">
+      <c r="IG1" t="str">
         <v>ant-pagination-item 2</v>
       </c>
-      <c r="FB1" t="str">
+      <c r="IH1" t="str">
         <v>ant-pagination-item href 2</v>
       </c>
-      <c r="FC1" t="str">
+      <c r="II1" t="str">
         <v>ant-pagination-item 3</v>
       </c>
-      <c r="FD1" t="str">
+      <c r="IJ1" t="str">
         <v>ant-pagination-item href 3</v>
       </c>
-      <c r="FE1" t="str">
+      <c r="IK1" t="str">
         <v>ant-pagination-item 4</v>
       </c>
-      <c r="FF1" t="str">
+      <c r="IL1" t="str">
         <v>ant-pagination-item href 4</v>
       </c>
-      <c r="FG1" t="str">
+      <c r="IM1" t="str">
         <v>ant-pagination-item 5</v>
       </c>
-      <c r="FH1" t="str">
+      <c r="IN1" t="str">
         <v>ant-pagination-item href 5</v>
-      </c>
-      <c r="FI1" t="str">
-        <v>ant-pagination-item-ellipsis</v>
-      </c>
-      <c r="FJ1" t="str">
-        <v>ant-pagination-item 6</v>
-      </c>
-      <c r="FK1" t="str">
-        <v>ant-pagination-item href 6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Slip Ons and Loafers</v>
+        <v>173 items found in</v>
       </c>
       <c r="B2" t="str">
-        <v>1605 items found in</v>
+        <v>Underwater Digital Cameras</v>
       </c>
       <c r="C2" t="str">
-        <v>DIY</v>
+        <v>Sort By:</v>
       </c>
       <c r="D2" t="str">
-        <v>Sort By:</v>
+        <v>Best Match</v>
       </c>
       <c r="E2" t="str">
-        <v>Best Match</v>
+        <v>View:</v>
       </c>
       <c r="F2" t="str">
-        <v>View:</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -1377,6 +1620,249 @@
         <v/>
       </c>
       <c r="FK2" t="str">
+        <v/>
+      </c>
+      <c r="FL2" t="str">
+        <v/>
+      </c>
+      <c r="FM2" t="str">
+        <v/>
+      </c>
+      <c r="FN2" t="str">
+        <v/>
+      </c>
+      <c r="FO2" t="str">
+        <v/>
+      </c>
+      <c r="FP2" t="str">
+        <v/>
+      </c>
+      <c r="FQ2" t="str">
+        <v/>
+      </c>
+      <c r="FR2" t="str">
+        <v/>
+      </c>
+      <c r="FS2" t="str">
+        <v/>
+      </c>
+      <c r="FT2" t="str">
+        <v/>
+      </c>
+      <c r="FU2" t="str">
+        <v/>
+      </c>
+      <c r="FV2" t="str">
+        <v/>
+      </c>
+      <c r="FW2" t="str">
+        <v/>
+      </c>
+      <c r="FX2" t="str">
+        <v/>
+      </c>
+      <c r="FY2" t="str">
+        <v/>
+      </c>
+      <c r="FZ2" t="str">
+        <v/>
+      </c>
+      <c r="GA2" t="str">
+        <v/>
+      </c>
+      <c r="GB2" t="str">
+        <v/>
+      </c>
+      <c r="GC2" t="str">
+        <v/>
+      </c>
+      <c r="GD2" t="str">
+        <v/>
+      </c>
+      <c r="GE2" t="str">
+        <v/>
+      </c>
+      <c r="GF2" t="str">
+        <v/>
+      </c>
+      <c r="GG2" t="str">
+        <v/>
+      </c>
+      <c r="GH2" t="str">
+        <v/>
+      </c>
+      <c r="GI2" t="str">
+        <v/>
+      </c>
+      <c r="GJ2" t="str">
+        <v/>
+      </c>
+      <c r="GK2" t="str">
+        <v/>
+      </c>
+      <c r="GL2" t="str">
+        <v/>
+      </c>
+      <c r="GM2" t="str">
+        <v/>
+      </c>
+      <c r="GN2" t="str">
+        <v/>
+      </c>
+      <c r="GO2" t="str">
+        <v/>
+      </c>
+      <c r="GP2" t="str">
+        <v/>
+      </c>
+      <c r="GQ2" t="str">
+        <v/>
+      </c>
+      <c r="GR2" t="str">
+        <v/>
+      </c>
+      <c r="GS2" t="str">
+        <v/>
+      </c>
+      <c r="GT2" t="str">
+        <v/>
+      </c>
+      <c r="GU2" t="str">
+        <v/>
+      </c>
+      <c r="GV2" t="str">
+        <v/>
+      </c>
+      <c r="GW2" t="str">
+        <v/>
+      </c>
+      <c r="GX2" t="str">
+        <v/>
+      </c>
+      <c r="GY2" t="str">
+        <v/>
+      </c>
+      <c r="GZ2" t="str">
+        <v/>
+      </c>
+      <c r="HA2" t="str">
+        <v/>
+      </c>
+      <c r="HB2" t="str">
+        <v/>
+      </c>
+      <c r="HC2" t="str">
+        <v/>
+      </c>
+      <c r="HD2" t="str">
+        <v/>
+      </c>
+      <c r="HE2" t="str">
+        <v/>
+      </c>
+      <c r="HF2" t="str">
+        <v/>
+      </c>
+      <c r="HG2" t="str">
+        <v/>
+      </c>
+      <c r="HH2" t="str">
+        <v/>
+      </c>
+      <c r="HI2" t="str">
+        <v/>
+      </c>
+      <c r="HJ2" t="str">
+        <v/>
+      </c>
+      <c r="HK2" t="str">
+        <v/>
+      </c>
+      <c r="HL2" t="str">
+        <v/>
+      </c>
+      <c r="HM2" t="str">
+        <v/>
+      </c>
+      <c r="HN2" t="str">
+        <v/>
+      </c>
+      <c r="HO2" t="str">
+        <v/>
+      </c>
+      <c r="HP2" t="str">
+        <v/>
+      </c>
+      <c r="HQ2" t="str">
+        <v/>
+      </c>
+      <c r="HR2" t="str">
+        <v/>
+      </c>
+      <c r="HS2" t="str">
+        <v/>
+      </c>
+      <c r="HT2" t="str">
+        <v/>
+      </c>
+      <c r="HU2" t="str">
+        <v/>
+      </c>
+      <c r="HV2" t="str">
+        <v/>
+      </c>
+      <c r="HW2" t="str">
+        <v/>
+      </c>
+      <c r="HX2" t="str">
+        <v/>
+      </c>
+      <c r="HY2" t="str">
+        <v/>
+      </c>
+      <c r="HZ2" t="str">
+        <v/>
+      </c>
+      <c r="IA2" t="str">
+        <v/>
+      </c>
+      <c r="IB2" t="str">
+        <v/>
+      </c>
+      <c r="IC2" t="str">
+        <v/>
+      </c>
+      <c r="ID2" t="str">
+        <v/>
+      </c>
+      <c r="IE2" t="str">
+        <v/>
+      </c>
+      <c r="IF2" t="str">
+        <v/>
+      </c>
+      <c r="IG2" t="str">
+        <v/>
+      </c>
+      <c r="IH2" t="str">
+        <v/>
+      </c>
+      <c r="II2" t="str">
+        <v/>
+      </c>
+      <c r="IJ2" t="str">
+        <v/>
+      </c>
+      <c r="IK2" t="str">
+        <v/>
+      </c>
+      <c r="IL2" t="str">
+        <v/>
+      </c>
+      <c r="IM2" t="str">
+        <v/>
+      </c>
+      <c r="IN2" t="str">
         <v/>
       </c>
     </row>
@@ -1397,489 +1883,732 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/erchang-43-4-led-1000tvl-15-i5095520262.html</v>
       </c>
       <c r="G3" t="str">
-        <v>https://www.lazada.co.th/products/acer-core-i5-4440-310-330-ghzddr3-8-gb-ssd-128-gb-hd5450-1-gb-i5163053317.html</v>
+        <v>https://lzd-img-global.slatic.net/g/p/0a2002c77694c761b6bd4d514ff6a0df.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="H3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/5758aa95be7de036ea73c028e5a6ae79.jpg_200x200q80.jpg_.webp</v>
+        <v>Erchang 4.3\" Underwater Camera For Fishing 4X Digital Zoom Underwater Fisherman Camera 15M 1000TVL Infrared Led Ice Fishing</v>
       </c>
       <c r="I3" t="str">
-        <v>คอมมือสอง Acer Core i5-4440 3.10-3.30 GHz.DDR3 8 GB SSD 128 GB HD5450 1 GB พร้อมใช้ถูกๆ 😮😲</v>
+        <v>฿5,510.00</v>
       </c>
       <c r="J3" t="str">
-        <v>฿2,190.00</v>
+        <v>5% Off</v>
       </c>
       <c r="K3" t="str">
-        <v>Phitsanulok</v>
+        <v>Overseas</v>
       </c>
       <c r="L3" t="str">
-        <v>https://www.lazada.co.th/products/hp-elitedesk-800-g4-sff-core-i7-8700-32ghzgen8-ram-8-gb-ssd-m2-512gb-dvd-win10-i5162899148.html</v>
+        <v>https://www.lazada.co.th/products/eyoyo-43-tft-led-4x-i5095469893.html</v>
       </c>
       <c r="M3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/48cae77a37755a1e94d782f7f90fd6f5.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/99745abcddb89fd75094a7fa53e5a426.png_200x200q80.png_.webp</v>
       </c>
       <c r="N3" t="str">
-        <v>HP elitedesk 800 G4 SFF Core i7 8700 3.2GHz (Gen8) / RAM 8 GB /SSD M.2 512GB / DVD /Win10/ (second hand)</v>
+        <v>Eyoyo Fish Finder Camera For Underwater Monitoring Fishing Finder 4.3 Inch TFT Display LED Digital Zoom 4X Ice Fishing Camera</v>
       </c>
       <c r="O3" t="str">
-        <v>฿7,500.00</v>
+        <v>฿5,986.00</v>
       </c>
       <c r="P3" t="str">
+        <v>https://www.lazada.co.th/products/-i4995838399.html</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/072b3bcd01829400671d50b871791066.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Camera Dial Mode Interface Cap Function Plate Button Repair Kit Replacement Durable Useful 【Free Shipping】</v>
+      </c>
+      <c r="S3" t="str">
+        <v>฿60.00</v>
+      </c>
+      <c r="T3" t="str">
+        <v>30% Off</v>
+      </c>
+      <c r="U3" t="str">
+        <v>https://www.lazada.co.th/products/broadfashion-industrial-endoscope-borescope-inspection-camera-43inch-hd-1080p-display-screen-built-in-8-leds-8mm-lens-2000mah-rechargeable-lithium-battery-i4989986820.html</v>
+      </c>
+      <c r="V3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/4a73c7ab2d0a4b77bf4d8a566260a893.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="W3" t="str">
+        <v>Broadfashion Industrial Endoscope Borescope Inspection Camera 4.3inch HD 1080P Display Screen Built-in 8 LEDs 8mm Lens 2000mAh Rechargeable Lithium Battery</v>
+      </c>
+      <c r="X3" t="str">
+        <v>฿1,288.00</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>43% Off</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>https://www.lazada.co.th/products/teqinfast-deliveryhd-4k-wifi-action-camera-1080p-60fps-mini-cam-30m-waterproof-go-sport-dvr-extreme-pro-cam-i4977531073.html</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/c00cd7215fe12285c4716a52a5306a4d.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/5346cc5587e589e5da8dafc0eea88729.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/09cc9ad652a733a751119d155567b3e6.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/bc05620f9abc80bbc220981377ec3fca.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/d20b0e271f17dd8d422e89b8bd499dbd.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AF3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/eeb7546fb91f3145c78d8879e6e437ad.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AG3" t="str">
+        <v>TEQIN【Fast Delivery】HD 4K WIFI Action Camera 1080p 60fps Mini Cam 30M Waterproof Go Sport DVR Extreme Pro Cam</v>
+      </c>
+      <c r="AH3" t="str">
+        <v>฿1,381.00</v>
+      </c>
+      <c r="AI3" t="str">
+        <v>44% Off</v>
+      </c>
+      <c r="AJ3" t="str">
+        <v>https://www.lazada.co.th/products/om-system-tg-7-i4952099449.html</v>
+      </c>
+      <c r="AK3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/ccce13f7a237e04e435ed8489a2ca2ed.png_200x200q80.png_.webp</v>
+      </c>
+      <c r="AL3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/0a5c44cce8407904715198194dc16ea8.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AM3" t="str">
+        <v>OM-SYSTEM TG-7 - ประกันศูนย์</v>
+      </c>
+      <c r="AN3" t="str">
+        <v>฿21,490.00</v>
+      </c>
+      <c r="AO3" t="str">
+        <v>15 sold</v>
+      </c>
+      <c r="AP3" t="str">
+        <v>(3)</v>
+      </c>
+      <c r="AQ3" t="str">
+        <v>Bangkok</v>
+      </c>
+      <c r="AR3" t="str">
+        <v>https://www.lazada.co.th/products/ricoh-wg-6-digital-camera-orange-i4797699699.html</v>
+      </c>
+      <c r="AS3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/618b0eecdb0707a7282d1b51eb9e9f7c.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="AT3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/618b0eecdb0707a7282d1b51eb9e9f7c.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AU3" t="str">
+        <v>Ricoh WG-6 Digital Camera Orange (ประกันศูนย์)</v>
+      </c>
+      <c r="AV3" t="str">
+        <v>฿14,990.00</v>
+      </c>
+      <c r="AW3" t="str">
+        <v>https://www.lazada.co.th/products/ricoh-wg-80-digital-camera-i4776715922.html</v>
+      </c>
+      <c r="AX3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/066bc4af0d37ad04d8baa3a90700faba.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="AY3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/066bc4af0d37ad04d8baa3a90700faba.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="AZ3" t="str">
+        <v>Ricoh WG-80 Digital Camera (ประกันศูนย์)</v>
+      </c>
+      <c r="BA3" t="str">
+        <v>฿11,990.00</v>
+      </c>
+      <c r="BB3" t="str">
+        <v>8 sold</v>
+      </c>
+      <c r="BC3" t="str">
+        <v>https://www.lazada.co.th/products/seek-thermal-shot-i4765172227.html</v>
+      </c>
+      <c r="BD3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/Se83ffd05d67a41a8b9a535df142a6f27h.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="BE3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/Se83ffd05d67a41a8b9a535df142a6f27h.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="BF3" t="str">
+        <v>Seek thermal shot มือสอง สภาพมือหนึ่ง</v>
+      </c>
+      <c r="BG3" t="str">
+        <v>฿17,000.00</v>
+      </c>
+      <c r="BH3" t="str">
+        <v>Samut Prakan</v>
+      </c>
+      <c r="BI3" t="str">
+        <v>https://www.lazada.co.th/products/agfa-photo-lebox-ocean-40027-exposures-disposable-camera-3-i4604872695.html</v>
+      </c>
+      <c r="BJ3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/e4a8876b05a0cc89bbaf98dcf280ff30.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="BK3" t="str">
+        <v>กล้องฟิล์ม ลงน้ำได้ Agfa Photo LeBox Ocean 400/27 Exposures Disposable Camera ลงน้ำได้ลึก 3 เมตร</v>
+      </c>
+      <c r="BL3" t="str">
+        <v>฿710.00</v>
+      </c>
+      <c r="BM3" t="str">
         <v>Pathum Thani</v>
       </c>
-      <c r="Q3" t="str">
-        <v>https://www.lazada.co.th/products/used-computer-lenovo-m720s-core-i5-8500-30ghz-ram-16gb-m2-256gb-led-195-mouse-keyboard-usb-wifi-port-display-vga-usb-aux-lan-i5161921030.html</v>
-      </c>
-      <c r="R3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/0cf4c8b39413696eaa079a2af583435e.jpg_200x200q80.jpg_.webp</v>
-      </c>
-      <c r="S3" t="str">
-        <v>used COMPUTER LENOVO  M720S CORE I5-8500 3.0GHz RAM 16GB M.2-256GB LED 19.5" MOUSE KEYBOARD USB WIFI PORT DISPLAY VGA USB AUX LAN</v>
-      </c>
-      <c r="T3" t="str">
-        <v>฿5,500.00</v>
-      </c>
-      <c r="U3" t="str">
-        <v>20% Off</v>
-      </c>
-      <c r="V3" t="str">
-        <v>https://www.lazada.co.th/products/r3-3200g-r5-4600g-r5-5600gt-ram-16-ssd-256-1-i5161728380.html</v>
-      </c>
-      <c r="W3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/67f84f041e72745b924e167070d888d5.png_200x200q80.png_.webp</v>
-      </c>
-      <c r="X3" t="str">
-        <v>ใหม่ล่าสุด R3 3200G / R5-4600G / R5-5600GT  / RAM 16 / SSD 256 คอมประกอบ สายเกมมิ่ง ประกันเต็ม มือ 1</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>฿9,990.00</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>https://www.lazada.co.th/products/dell-optiplex-7040-sff-core-i5-6500-m2-nvme-ssd-windows-10-3-wifibluetooth-used-i5159025171.html</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4ec29e50598da0c48c28900e47a8b722.jpg_200x200q80.jpg_.webp</v>
-      </c>
-      <c r="AC3" t="str">
-        <v>คอมพิวเตอร์มือสอง Dell OptiPlex 7040 SFF Core i5-6500 M.2 NVMe SSD Windows 10 แท้ ต่อได้ 3 จอ ต่อ WIFI+Bluetooth ได้ [USED]</v>
-      </c>
-      <c r="AD3" t="str">
-        <v>฿4,750.00</v>
-      </c>
-      <c r="AE3" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="AF3" t="str">
-        <v>https://www.lazada.co.th/products/desktop-pc-acer-aspire-tc-1780-13716g0t0mit006-by-siam-tv-i5158855427.html</v>
-      </c>
-      <c r="AG3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/1c32152b67b54f91573440d704b254b5.jpg_200x200q80.jpg_.webp</v>
-      </c>
-      <c r="AH3" t="str">
-        <v>DESKTOP PC คอมพิวเตอร์ตั้งโต๊ะ ACER ASPIRE TC-1780-13716G0T0MI/T006 โดย สยามทีวี by Siam T.V.</v>
-      </c>
-      <c r="AI3" t="str">
-        <v>฿31,490.00</v>
-      </c>
-      <c r="AJ3" t="str">
-        <v>Chiang Mai</v>
-      </c>
-      <c r="AK3" t="str">
-        <v>https://www.lazada.co.th/products/2cpu-intel-xeon-e5-2697v2-x2-24c48t-vga-4-16gb-ram32-128gb-m2nvme-preloved-i5158805071.html</v>
-      </c>
-      <c r="AL3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/402d32f0bf364d2b97c82870411df46c.jpg_200x200q80.jpg_.webp</v>
-      </c>
-      <c r="AM3" t="str">
-        <v>คอมประกอบ คอมปล่อยบอท เล่นเกมส์ ทํางาน ตัดต่อ 2CPU intel xeon e5 2697v2 X2 24c/48t VGA 4-16GB RAM32-128GB M.2NVME ไม่มีไฟ "PRELOVED"</v>
-      </c>
-      <c r="AN3" t="str">
-        <v>฿13,500.00</v>
-      </c>
-      <c r="AO3" t="str">
-        <v>Surat Thani</v>
-      </c>
-      <c r="AP3" t="str">
-        <v>https://www.lazada.co.th/products/hp-prodesk-400-g9-sff-i5-13500-8gb-512ssd-win11pro-warranty-1-year-onsite-by-hp-i5157031662.html</v>
-      </c>
-      <c r="AQ3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/440cdc4da9ebec39afc88f512d195a12.jpg_200x200q80.jpg_.webp</v>
-      </c>
-      <c r="AR3" t="str">
-        <v>HP ProDesk 400 G9 SFF i5-13500 8GB 512SSD Win11Pro Warranty 1 Year Onsite By HP</v>
-      </c>
-      <c r="AS3" t="str">
-        <v>฿27,900.00</v>
-      </c>
-      <c r="AT3" t="str">
-        <v>22% Off</v>
-      </c>
-      <c r="AU3" t="str">
-        <v>https://www.lazada.co.th/products/dell-optiplex-7040-sff-core-i5-6500-m2-nvme-ssd-windows-10-3-wifibluetooth-i5156890192.html</v>
-      </c>
-      <c r="AV3" t="str">
+      <c r="BN3" t="str">
+        <v>https://www.lazada.co.th/products/ultra-hd-4k-21080p-60-fps-5-i4489545141.html</v>
+      </c>
+      <c r="BO3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/76f2cfddaac231126d997f40750940f1.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="BP3" t="str">
+        <v>New Ultra HD 4K Sports Camera Remote Control 2 Inch Screen Sports Camera 1080P 60 Fps Waterproof Helmet Go Sport Pro Hero 5 Cam</v>
+      </c>
+      <c r="BQ3" t="str">
+        <v>฿4,424.00</v>
+      </c>
+      <c r="BR3" t="str">
+        <v>(6)</v>
+      </c>
+      <c r="BS3" t="str">
+        <v>https://www.lazada.co.th/products/ricoh-wg-80-1-i4476458558.html</v>
+      </c>
+      <c r="BT3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/9ac1c7cf8922b77ddbc200f2e96b690b.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="BU3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/9ac1c7cf8922b77ddbc200f2e96b690b.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="BV3" t="str">
+        <v>Ricoh WG-80 ประกันศูนย์ 1 ปี (เช็คสินค้าก่อนสั่งซื้อ)</v>
+      </c>
+      <c r="BW3" t="str">
+        <v>14% Off</v>
+      </c>
+      <c r="BX3" t="str">
+        <v>https://www.lazada.co.th/products/hd-1080p-i4195529015.html</v>
+      </c>
+      <c r="BY3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/e50d518506c1e1728b42138d8d81cd76.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="BZ3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/aa7dcdee432cfd64508fed5d1d012df1.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CA3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/0b07d8b0bb9842163f591c5dd3cf2ed6.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CB3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/c496ec33dc0a6ac16288712c135ca49d.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CC3" t="str">
+        <v>Action Camera Underwater Waterproof Helmet Video Recording Cameras Sport Cam HD 1080P Wide-Angle Lens Car Driving Recorder</v>
+      </c>
+      <c r="CD3" t="str">
+        <v>฿1,469.00</v>
+      </c>
+      <c r="CE3" t="str">
+        <v>29% Off</v>
+      </c>
+      <c r="CF3" t="str">
+        <v>https://www.lazada.co.th/products/free-shipgg-dji-hero87456-yi-klo2-christmas-gift-i3929461866.html</v>
+      </c>
+      <c r="CG3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/13b36d64ba4ea49818bfcf6a7ae8027a.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="CH3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/0df99c28e5e04102a4db42a18cc2751e.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CI3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/786f6a16961bbd5c713d436bb5f54c9a.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CJ3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/5a4579723c3ebdf45e41a93a35d12cff.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CK3" t="str">
+        <v>[Free shipg]g ไม้พยุงกล้องกีฬา DJI hero87456 อุปกรณ์เสริม YI มือถือดำน้ำ KLO2 Christmas Gift</v>
+      </c>
+      <c r="CL3" t="str">
+        <v>฿470.00</v>
+      </c>
+      <c r="CM3" t="str">
+        <v>https://www.lazada.co.th/products/penco-pocket-measure-navy-hgz111-nv-penco-i3913026735.html</v>
+      </c>
+      <c r="CN3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/1d8dde21f8f6232eae09b02edd0291d3.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="CO3" t="str">
+        <v>Penco Pocket Measure Navy (HGZ111-NV) / ตลับเมตร สีน้ำเงิน แบรนด์ Penco จากประเทศญี่ปุ่น</v>
+      </c>
+      <c r="CP3" t="str">
+        <v>฿468.00</v>
+      </c>
+      <c r="CQ3" t="str">
+        <v>(2)</v>
+      </c>
+      <c r="CR3" t="str">
+        <v>https://www.lazada.co.th/products/sunnylife-applicable-gopro-8-waterproof-case-underwater-housings-underwater-filter-buoyance-rod-suit-underwater-shooting-i3850608379.html</v>
+      </c>
+      <c r="CS3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/8d9c700cd7e03e9fa2f88a130b54999c.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="CT3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/6de19c4818f1001b37a732d1668d177a.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CU3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/8d9c700cd7e03e9fa2f88a130b54999c.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="CV3" t="str">
+        <v>Sunnylife Applicable GoPro 8 Waterproof Case Underwater Housings Underwater Filter Buoyance Rod Suit Underwater Shooting</v>
+      </c>
+      <c r="CW3" t="str">
+        <v>฿1,202.00</v>
+      </c>
+      <c r="CX3" t="str">
+        <v>https://www.lazada.co.th/products/gopro-underwater-camera-sponge-buoyance-rod-yi-sargo-sj-detachable-non-slip-handheld-rod-removable-diving-stick-i3850516915.html</v>
+      </c>
+      <c r="CY3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/ed17c25b6535fe1e1497a26cd4f65872.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="CZ3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/73152c3adefb775044a60fde62b91516.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DA3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/b12b9e86ae52eb7703a75577c4239572.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DB3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/3a3b2eb3edd80289e71d363e584bdf05.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DC3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/2d82a9e8f2c39f06628bbcf621f1f9c6.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DD3" t="str">
+        <v>Gopro Underwater Camera Sponge Buoyance Rod Yi Sargo SJ Detachable Non-Slip Handheld Rod Removable Diving Stick</v>
+      </c>
+      <c r="DE3" t="str">
+        <v>฿259.00</v>
+      </c>
+      <c r="DF3" t="str">
+        <v>https://www.lazada.co.th/products/freegreen-27k-48mp-full-hd-selfie-dual-10ft-16x-i3611710616.html</v>
+      </c>
+      <c r="DG3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/d876819dc9a5042598b297b46f83593c.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="DH3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/1716861a506430046aef26d94201cd32.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DI3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/2deb734d1187ee9de677685ccf998bd5.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DJ3" t="str">
+        <v>[Lowest Price]FreeGreen Waterproof Camera Underwater Camera For Snorkeling 2.7K 48MP Video Recorder Full HD Selfie Dual Screen 10FT 16X Digital Zoom Waterproof Digital Camera</v>
+      </c>
+      <c r="DK3" t="str">
+        <v>฿1,912.00</v>
+      </c>
+      <c r="DL3" t="str">
+        <v>35% Off</v>
+      </c>
+      <c r="DM3" t="str">
+        <v>14 sold</v>
+      </c>
+      <c r="DN3" t="str">
+        <v>(1)</v>
+      </c>
+      <c r="DO3" t="str">
+        <v>https://www.lazada.co.th/products/1000000lm-xhp160-the-most-brightest-led-flashlight-zoomable-usb-chargeable-torch-light-18650-26650-battery-lantern-for-camping-i3606267021.html</v>
+      </c>
+      <c r="DP3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/f9e568512c74d51b404e0fb93d5309f7.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="DQ3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/6280e25ce2eb9cdc7f346fb47add9e8c.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DR3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/32d345acad64ec83b00b0611df74ee1c.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DS3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/7505783f0456dbe9b81943d980c6b65a.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DT3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/82529b2d929f8d834f6e7ed830afae4c.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DU3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/1e09e3b339b648b057be2a011e813066.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="DV3" t="str">
         <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
       </c>
-      <c r="AW3" t="str">
-        <v>คอมพิวเตอร์มือสอง Dell OptiPlex 7040 SFF Core i5-6500 M.2 NVMe SSD Windows 10 แท้ ต่อได้ 3 จอ ต่อ WIFI+Bluetooth ได้ มีหน้าร้าน มีรับประกัน ราคาถูก</v>
-      </c>
-      <c r="AX3" t="str">
-        <v>฿4,700.00</v>
-      </c>
-      <c r="AY3" t="str">
-        <v>https://www.lazada.co.th/products/dell-optiplex-7040-micro-cpu-core-i7-6700t-28ghz-gen6-ram-8gbssd-m2-128gbwin10wifi-i5155506274.html</v>
-      </c>
-      <c r="AZ3" t="str">
-        <v>Only Dell Optiplex 7040 micro CPU Core i7 6700T 2.8GHz (Gen6) /ram 8GB/SSD M.2 128GB/Win10/wifi/ used</v>
-      </c>
-      <c r="BA3" t="str">
-        <v>฿4,990.00</v>
-      </c>
-      <c r="BB3" t="str">
-        <v>https://www.lazada.co.th/products/1-core-i5-gtx-1060-6gb-ram-16gb-i5155408483.html</v>
-      </c>
-      <c r="BC3" t="str">
-        <v>New assembled computer, Core-i5 /GTX 1060 6Gb /Ram 16Gb for working-playing games You can choose your graphics card, you can choose your case, quality products, ready to ship.</v>
-      </c>
-      <c r="BD3" t="str">
-        <v>฿5,100.00</v>
-      </c>
-      <c r="BE3" t="str">
-        <v>https://www.lazada.co.th/products/1-core-i7-gtx-1060-6gb-ram-16gb-i5155400577.html</v>
-      </c>
-      <c r="BF3" t="str">
-        <v>New assembled computer, Core-i7 /GTX 1060 6Gb /Ram 16Gb for working-playing games You can choose your graphics card, you can choose your case, quality products, ready to ship.</v>
-      </c>
-      <c r="BG3" t="str">
-        <v>฿6,290.00</v>
-      </c>
-      <c r="BH3" t="str">
-        <v>https://www.lazada.co.th/products/dell-optiplex-3080-core-i5-10505-ram8gb-ssd-nvme-512-gb-i5155284513.html</v>
-      </c>
-      <c r="BI3" t="str">
-        <v>คอมพิวเตอร์ มือสอง DELL Optiplex 3080 Core i5-10505 •RAM8GB •SSD NVMe 512 GB</v>
-      </c>
-      <c r="BJ3" t="str">
-        <v>฿5,990.00</v>
-      </c>
-      <c r="BK3" t="str">
-        <v>https://www.lazada.co.th/products/pi-3-b-v12-i5154741517.html</v>
-      </c>
-      <c r="BL3" t="str">
-        <v>Raspberry Pi 3 Model B V1.2 (Made in Japan) Domestic</v>
-      </c>
-      <c r="BM3" t="str">
-        <v>฿3,774.00</v>
-      </c>
-      <c r="BN3" t="str">
-        <v>23% Off</v>
-      </c>
-      <c r="BO3" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="BP3" t="str">
-        <v>https://www.lazada.co.th/products/code-intel-5000pc-acer-nitro-n50-650-13f16g0tmgit00bdge3gst00b-acer-3-i5154155273.html</v>
-      </c>
-      <c r="BQ3" t="str">
-        <v>[เก็บ CODE INTEL ลดสูงสุด 5,000]PC คอมพิวเตอร์ตั้งโต๊ะ ACER NITRO N50-650-13F16G0TMGi/T00B#DG.E3GST.00B/ประกันศูนย์ Acer 3</v>
-      </c>
-      <c r="BR3" t="str">
-        <v>฿42,990.00</v>
-      </c>
-      <c r="BS3" t="str">
-        <v>4% Off</v>
-      </c>
-      <c r="BT3" t="str">
-        <v>https://www.lazada.co.th/products/pc-hp-prodesk-400-g5-sff-i5-8500-ram-8-gb-ssd-m2-256-gb-22-full-hd-i5154065713.html</v>
-      </c>
-      <c r="BU3" t="str">
-        <v>(PC) HP ProDesk 400 G5 SFF / i5-8500 / Ram 8 GB / SSD M.2 256 GB / จอขนาด 22 นิ้ว Full HD</v>
-      </c>
-      <c r="BV3" t="str">
-        <v>฿5,900.00</v>
-      </c>
-      <c r="BW3" t="str">
-        <v>https://www.lazada.co.th/products/mini-pc-dell-optiplex-7060-i5-8500-ram-16-gb-ssd-m2-256-gb-hdd-500-gb-i5154063793.html</v>
-      </c>
-      <c r="BX3" t="str">
-        <v>(Mini PC) Dell Optiplex 7060 / i5-8500 / Ram 16 GB / SSD M.2 256 GB + HDD 500 GB</v>
-      </c>
-      <c r="BY3" t="str">
-        <v>฿6,900.00</v>
-      </c>
-      <c r="BZ3" t="str">
-        <v>https://www.lazada.co.th/products/asus-90ab1atk-mb3110-mini-pc-bnuc11atkc40001intel-nuc-celeron-n5105up-to-290-ghz-by-vnix-group-i5153843127.html</v>
-      </c>
-      <c r="CA3" t="str">
-        <v>Asus 90AB1ATK-MB3110 Mini PC BNUC11ATKC40001/Intel NUC Celeron N5105/up to 2.90 GHz By Vnix Group</v>
-      </c>
-      <c r="CB3" t="str">
-        <v>฿8,230.00</v>
-      </c>
-      <c r="CC3" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="CD3" t="str">
-        <v>https://www.lazada.co.th/products/asus-90ab3ank-mr4100-mini-pc-nuc-rnuc13anki30000-by-vnix-group-i5153628703.html</v>
-      </c>
-      <c r="CE3" t="str">
-        <v>Asus 90AB3ANK-MR4100 MINI PC (มินิพีซี) NUC RNUC13ANKI30000 By Vnix Group</v>
-      </c>
-      <c r="CF3" t="str">
-        <v>฿15,959.00</v>
-      </c>
-      <c r="CG3" t="str">
-        <v>1% Off</v>
-      </c>
-      <c r="CH3" t="str">
-        <v>https://www.lazada.co.th/products/dell-optiplex-7050mini-core-i7-6700t-ram-8gb-ssd-m2-128gb-i5153576172.html</v>
-      </c>
-      <c r="CI3" t="str">
-        <v>คอมพิวเตอร์ไซร์เล็ก Dell optiplex 7050mini core i7-6700t ram 8gb ssd m.2 128gb ลงโปรแกรมให้พร้อมใช้งาน</v>
-      </c>
-      <c r="CJ3" t="str">
-        <v>https://www.lazada.co.th/products/dell-optiplex-7040mini-core-i7-6700t-ram-8gb-ssd-m2-128gb-i5153520390.html</v>
-      </c>
-      <c r="CK3" t="str">
-        <v>คอมพิวเตอร์ไซร์เล็ก Dell optiplex 7040mini core i7-6700t ram 8gb ssd m.2 128gb มือสอง</v>
-      </c>
-      <c r="CL3" t="str">
-        <v>https://www.lazada.co.th/products/dell-snst346011-workstation-precision-3460-sff-i5-1360016gb2tb-256gb-ssdnvidia-t400-4gbwin11pro-i5152996125.html</v>
-      </c>
-      <c r="CM3" t="str">
-        <v>Dell (SNST346011) Workstation Precision 3460 SFF i5-13600/16GB/2TB + 256GB SSD/NVIDIA T400 4GB/Win11Pro</v>
-      </c>
-      <c r="CN3" t="str">
-        <v>฿44,999.00</v>
-      </c>
-      <c r="CO3" t="str">
-        <v>Phuket</v>
-      </c>
-      <c r="CP3" t="str">
-        <v>https://www.lazada.co.th/products/pc-acer-i3-gen-1-ram-ddr3-4gb-hdd-320gb-i5152983339.html</v>
-      </c>
-      <c r="CQ3" t="str">
-        <v>เครื่อง PC ACER i3 gen 1 ram ddr3 4gb HDD 320GB</v>
-      </c>
-      <c r="CR3" t="str">
-        <v>฿890.00</v>
-      </c>
-      <c r="CS3" t="str">
-        <v>44% Off</v>
-      </c>
-      <c r="CT3" t="str">
-        <v>(1)</v>
-      </c>
-      <c r="CU3" t="str">
-        <v>https://www.lazada.co.th/products/desktop-dell-optiplex-7010-mt-sns7010mt002-i5152956024.html</v>
-      </c>
-      <c r="CV3" t="str">
-        <v>Desktop DELL Optiplex 7010 MT-SNS7010MT002</v>
-      </c>
-      <c r="CW3" t="str">
-        <v>฿22,210.00</v>
-      </c>
-      <c r="CX3" t="str">
-        <v>Nonthaburi</v>
-      </c>
-      <c r="CY3" t="str">
-        <v>https://www.lazada.co.th/products/desktop-dell-inspiron-i3030sf-oid3030s301301gth-i5152864047.html</v>
-      </c>
-      <c r="CZ3" t="str">
-        <v>Desktop DELL Inspiron I3030SF-OID3030S301301GTH</v>
-      </c>
-      <c r="DA3" t="str">
-        <v>฿23,090.00</v>
-      </c>
-      <c r="DB3" t="str">
-        <v>https://www.lazada.co.th/products/i3-jskcomputer-i5151740716.html</v>
-      </c>
-      <c r="DC3" t="str">
-        <v>****ส่งฟรีทุกคำสั่งซื้อ**** เคสคอมพิวเตอร์ i3 ทำงาน เล่นเกม เรียนออนไลน์ สุดคุ้ม ถูกสุดๆ (JSKCOMPUTER)</v>
-      </c>
-      <c r="DD3" t="str">
-        <v>฿1,290.00</v>
-      </c>
-      <c r="DE3" t="str">
-        <v>14% Off</v>
-      </c>
-      <c r="DF3" t="str">
-        <v>Maha Sarakham</v>
-      </c>
-      <c r="DG3" t="str">
-        <v>https://www.lazada.co.th/products/code-intel-2000-acer-pc-aspire-tc-1785-1418g0t0mit00c-dtblnst00cintel-core-i3-14100ram8gb-i5151211300.html</v>
-      </c>
-      <c r="DH3" t="str">
-        <v>[เก็บ CODE INTEL ลดสูงสุด 2,000]คอมพิวเตอร์ตั้งโต๊ะ ACER PC ASPIRE TC-1785-1418G0T0Mi/T00C # DT.BLNST.00C/Intel Core i3-14100/RAM8GB</v>
-      </c>
-      <c r="DI3" t="str">
-        <v>฿17,990.00</v>
-      </c>
-      <c r="DJ3" t="str">
-        <v>10% Off</v>
-      </c>
-      <c r="DK3" t="str">
-        <v>https://www.lazada.co.th/products/code-intel-5000-acer-pc-aspire-tc-1785-14416g0t0mit00a-dtblnst00aintel-core-i5-14400ram16gbssd512gb-i5151147432.html</v>
-      </c>
-      <c r="DL3" t="str">
-        <v>[เก็บ CODE INTEL ลดสูงสุด 5,000]คอมพิวเตอร์ตั้งโต๊ะ ACER PC ASPIRE TC-1785-14416G0T0Mi/T00A # DT.BLNST.00A/Intel Core i5-14400/RAM16GB/SSD512GB</v>
-      </c>
-      <c r="DM3" t="str">
-        <v>฿21,990.00</v>
-      </c>
-      <c r="DN3" t="str">
-        <v>15% Off</v>
-      </c>
-      <c r="DO3" t="str">
-        <v>https://www.lazada.co.th/products/asus-expertcenter-d5-mini-tower-d500mees-3131000090-desktop-intel-core-i3-13100-8gb-ddr4-u-dimm-256gb-m2-2280-nvme-pcie-40-ssd-i5150623137.html</v>
-      </c>
-      <c r="DP3" t="str">
-        <v>ASUS ExpertCenter D5 Mini Tower D500MEES-3131000090, desktop, Intel Core i3-13100, 8GB DDR4 U-DIMM, 256GB M.2 2280 NVMe™ PCIe® 4.0 SSD</v>
-      </c>
-      <c r="DQ3" t="str">
-        <v>฿15,532.00</v>
-      </c>
-      <c r="DR3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405034-i5150600222.html</v>
-      </c>
-      <c r="DS3" t="str">
-        <v>COMPUTERSET JIB MARU-2405034</v>
-      </c>
-      <c r="DT3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405026-i5150591277.html</v>
-      </c>
-      <c r="DU3" t="str">
-        <v>COMPUTERSET JIB MARU-2405026</v>
-      </c>
-      <c r="DV3" t="str">
-        <v>฿27,400.00</v>
-      </c>
       <c r="DW3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405028-i5150587297.html</v>
+        <v>1000,000LM XHP160 The most Brightest Led Flashlight Zoomable Usb Chargeable Torch Light 18650 26650 Battery Lantern for Camping</v>
       </c>
       <c r="DX3" t="str">
-        <v>COMPUTERSET JIB MARU-2405028</v>
+        <v>฿1,661.24</v>
       </c>
       <c r="DY3" t="str">
-        <v>฿34,250.00</v>
+        <v>32% Off</v>
       </c>
       <c r="DZ3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405022-i5150574299.html</v>
+        <v>https://www.lazada.co.th/products/solar-swimming-pool-lights-ip68-waterproof-remote-float-outdoor-lighting-pool-party-decoration-pond-garden-decorative-lamp-i3606264035.html</v>
       </c>
       <c r="EA3" t="str">
-        <v>COMPUTERSET JIB MARU-2405022</v>
+        <v>https://lzd-img-global.slatic.net/g/p/409c46069a7b7adcdd480ecbd330aa90.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="EB3" t="str">
-        <v>฿24,900.00</v>
+        <v>Solar Swimming Pool Lights IP68 Waterproof Remote Float Outdoor Lighting Pool Party Decoration Pond Garden Decorative Lamp</v>
       </c>
       <c r="EC3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405025-i5150571379.html</v>
+        <v>฿1,162.80</v>
       </c>
       <c r="ED3" t="str">
-        <v>COMPUTERSET JIB MARU-2405025</v>
+        <v>https://www.lazada.co.th/products/seafrogs-ipx8-2000-lumens-30meter-underwater-rgb-led-colorful-remote-control-atmosphere-fill-light-i3606257115.html</v>
       </c>
       <c r="EE3" t="str">
-        <v>฿25,200.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/33841ec66a116d9de38a336d128bb9fe.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="EF3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405036-i5150568461.html</v>
+        <v>Seafrogs IPX8 2000 Lumens 30Meter Underwater RGB LED Colorful Remote Control Atmosphere Fill Light</v>
       </c>
       <c r="EG3" t="str">
-        <v>COMPUTERSET JIB MARU-2405036</v>
+        <v>฿2,135.20</v>
       </c>
       <c r="EH3" t="str">
-        <v>฿29,400.00</v>
+        <v>https://www.lazada.co.th/products/lumintop-fw3tfw3a-ti-18650-flashlight-with-triple-led-anduril-firmware-tail-switch-2800-lumens-edc-flashlight-i3606257093.html</v>
       </c>
       <c r="EI3" t="str">
-        <v>5% Off</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8bf7d52d520ce18e2ba94b11dd7d5a9d.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="EJ3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405031-i5150556533.html</v>
+        <v>https://lzd-img-global.slatic.net/g/p/1a01db8a784e52266cf7535c194c6569.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="EK3" t="str">
-        <v>COMPUTERSET JIB MARU-2405031</v>
+        <v>https://lzd-img-global.slatic.net/g/p/fd9687372681b28018bc75f71858faaf.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="EL3" t="str">
-        <v>฿27,800.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8bf7d52d520ce18e2ba94b11dd7d5a9d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="EM3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405024-i5150548443.html</v>
+        <v>Lumintop FW3T(FW3A TI) 18650 flashlight with triple LED Anduril firmware tail switch 2800 Lumens EDC flashlight</v>
       </c>
       <c r="EN3" t="str">
-        <v>COMPUTERSET JIB MARU-2405024</v>
+        <v>฿3,489.76</v>
       </c>
       <c r="EO3" t="str">
-        <v>฿30,150.00</v>
+        <v>https://www.lazada.co.th/products/submersible-led-lights-with-remote-full-waterproof-with-magnets-suction-cupscolor-change-underwater-lights-for-ponds-i3606256135.html</v>
       </c>
       <c r="EP3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405027-i5150528601.html</v>
+        <v>https://lzd-img-global.slatic.net/g/p/80751d4cc7effadab8fdf6d7397fdb2e.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="EQ3" t="str">
-        <v>COMPUTERSET JIB MARU-2405027</v>
+        <v>Submersible LED Lights with Remote Full Waterproof with Magnets Suction Cups,Color Change Underwater Lights for Ponds</v>
       </c>
       <c r="ER3" t="str">
-        <v>฿23,400.00</v>
+        <v>฿2,572.44</v>
       </c>
       <c r="ES3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405038-i5150521688.html</v>
+        <v>https://www.lazada.co.th/products/lumintop-d1-led-flashlight-5-modes-triple-led-2000-lumens-portable-18650-flashlight-with-side-switch-i3606256111.html</v>
       </c>
       <c r="ET3" t="str">
-        <v>COMPUTERSET JIB MARU-2405038</v>
+        <v>https://lzd-img-global.slatic.net/g/p/fbbc022ed73ef7cda91b05466bac9a0d.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="EU3" t="str">
-        <v>฿39,400.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/5a79e615bdbf4e7722b8bd3ad6bc03a9.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="EV3" t="str">
-        <v>https://www.lazada.co.th/products/computerset-jib-maru-2405023-i5150506571.html</v>
+        <v>https://lzd-img-global.slatic.net/g/p/cbfc30d6da62ebb5a36a56c6dfd318e3.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="EW3" t="str">
-        <v>COMPUTERSET JIB MARU-2405023</v>
+        <v>Lumintop D1 LED flashlight 5 modes triple LED 2000 lumens portable 18650 flashlight with side switch</v>
       </c>
       <c r="EX3" t="str">
-        <v>฿28,200.00</v>
+        <v>฿1,458.60</v>
       </c>
       <c r="EY3" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/par56-led-swimming-pool-light-24w-36w-leds-spa-lights-rgbremote-12v-fountain-lamp-warm-cold-white-ip68-waterproof-spotlight-i3606256074.html</v>
       </c>
       <c r="EZ3" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/7d78e3d9129da1a6e6530dabe8777ec9.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="FA3" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/7d78e3d9129da1a6e6530dabe8777ec9.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="FB3" t="str">
-        <v/>
+        <v>PAR56 LED Swimming Pool Light 24W 36W Leds Spa Lights RGB+Remote 12V Fountain Lamp Warm Cold White IP68 Waterproof Spotlight</v>
       </c>
       <c r="FC3" t="str">
-        <v/>
+        <v>฿1,777.52</v>
       </c>
       <c r="FD3" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/solar-powered-floating-underwater-ball-lamp-pond-light-garden-swimming-pool-color-changing-led-lamp-garden-led-disco-lamp-i3606255093.html</v>
       </c>
       <c r="FE3" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/e22d06c28f72546ed744ab7242c33fdb.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="FF3" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/e22d06c28f72546ed744ab7242c33fdb.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="FG3" t="str">
-        <v/>
+        <v>Solar Powered Floating Underwater Ball Lamp Pond Light Garden Swimming Pool Color Changing LED Lamp Garden LED Disco Lamp</v>
       </c>
       <c r="FH3" t="str">
-        <v/>
+        <v>฿778.60</v>
       </c>
       <c r="FI3" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/niwalker-etmini-v1v2-1050lm-cwnw-18350-edc-flashlight-usb-c-rechargeable-9-modes-multipurpose-mini-tactical-torch-led-torch-i3606253136.html</v>
       </c>
       <c r="FJ3" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/a60f6f1034b2997c15035c219d0bf185.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="FK3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/a60f6f1034b2997c15035c219d0bf185.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="FL3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/77e409e0135952a4a9713a1a72532bf9.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="FM3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/9d2208e22f0c746969cd51086561ff36.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="FN3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/244e30ffc24344b459b55c22a69ae4c4.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="FO3" t="str">
+        <v>NIWALKER ETmini V1V2 1050lm CW&amp;NW 18350 EDC Flashlight USB-C Rechargeable 9 Modes Multipurpose Mini Tactical Torch LED Torch</v>
+      </c>
+      <c r="FP3" t="str">
+        <v>฿1,999.88</v>
+      </c>
+      <c r="FQ3" t="str">
+        <v>https://www.lazada.co.th/products/hoto-led-flashlight-power-ultra-bright-torch-5-lighting-modes-zoomable-outdoor-camping-bicycle-light-18650-lithium-battery-i3606252099.html</v>
+      </c>
+      <c r="FR3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/4e80b4153c948805bad566db5c677c12.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="FS3" t="str">
+        <v>HOTO LED Flashlight Power Ultra Bright Torch 5 Lighting Modes Zoomable Outdoor Camping Bicycle Light 18650 Lithium Battery</v>
+      </c>
+      <c r="FT3" t="str">
+        <v>฿1,449.08</v>
+      </c>
+      <c r="FU3" t="str">
+        <v>https://www.lazada.co.th/products/5pcs-colorful-mini-led-waterproof-fishing-bait-light-led-deep-underwater-fish-lure-lamp-lights-bait-lure-squid-strobe-light-i3606242130.html</v>
+      </c>
+      <c r="FV3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/1b3f927756d14e540176f330fd95a6f2.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="FW3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/1b3f927756d14e540176f330fd95a6f2.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="FX3" t="str">
+        <v>5PCS Colorful Mini LED Waterproof Fishing Bait Light LED Deep Underwater Fish Lure Lamp Lights Bait Lure Squid Strobe Light</v>
+      </c>
+      <c r="FY3" t="str">
+        <v>฿956.08</v>
+      </c>
+      <c r="FZ3" t="str">
+        <v>https://www.lazada.co.th/products/aquarium-fish-tank-submersible-led-spotlight-lighting-underwater-lamp-eu-plug-i3606238203.html</v>
+      </c>
+      <c r="GA3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/7e5c570689ac39a7e3bf4effa3ba6e17.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="GB3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/b4c264be87d0640dcc0b4a05345a0ba5.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GC3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/217dd6e0f1095d92043607afcadcf845.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GD3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/49499309c043ba60093644849a289a4c.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GE3" t="str">
+        <v>Aquarium Fish Tank Submersible LED Spotlight Lighting Underwater Lamp EU Plug</v>
+      </c>
+      <c r="GF3" t="str">
+        <v>฿739.84</v>
+      </c>
+      <c r="GG3" t="str">
+        <v>https://www.lazada.co.th/products/submersible-led-lights-waterproof-rgb-underwater-light-swimming-pool-tea-night-lightings-holiday-party-wedding-christmas-decor-i3606230281.html</v>
+      </c>
+      <c r="GH3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/26a6e3712806c159363bdc491d15af82.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="GI3" t="str">
+        <v>Submersible LED Lights Waterproof RGB Underwater Light Swimming Pool Tea Night Lightings Holiday Party Wedding Christmas Decor</v>
+      </c>
+      <c r="GJ3" t="str">
+        <v>฿1,130.16</v>
+      </c>
+      <c r="GK3" t="str">
+        <v>https://www.lazada.co.th/products/electric-cat-fish-toy-interactive-smart-swimming-fish-cat-toy-for-indoor-play-robot-underwater-toy-for-cat-dog-with-led-light-i3606230242.html</v>
+      </c>
+      <c r="GL3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/c2015b9e1cc744ceb81881fa51838000.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="GM3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/379291343f10e17a3be2d1b3f758480b.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GN3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/59b8bc3f8243a1721cc76eecaafd3d99.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GO3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/8498bfb6fb113725b11a641463078b3c.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GP3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/3b1c935b4b2a3270611599e78a7b0278.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GQ3" t="str">
+        <v>Electric Cat Fish Toy Interactive Smart Swimming Fish Cat Toy for Indoor Play Robot Underwater Toy for Cat Dog with LED Light</v>
+      </c>
+      <c r="GR3" t="str">
+        <v>฿711.28</v>
+      </c>
+      <c r="GS3" t="str">
+        <v>https://www.lazada.co.th/products/aquarium-fish-tank-lamp-led-bar-light-ip68-waterproof-cm-underwater-lamp-aquariums-decor-lighting-eu-power-supply-i3606230215.html</v>
+      </c>
+      <c r="GT3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/f2628087c3789348880b82575a0339e3.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="GU3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/c09f77ba107b015000924af216347196.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GV3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/62e80d72b41b1804a12c031a7cf1a406.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="GW3" t="str">
+        <v>Aquarium Fish Tank Lamp LED Bar Light IP68 Waterproof CM Underwater Lamp Aquariums Decor Lighting EU Power Supply</v>
+      </c>
+      <c r="GX3" t="str">
+        <v>฿731.00</v>
+      </c>
+      <c r="GY3" t="str">
+        <v>https://www.lazada.co.th/products/new-powerful-underwater-latern-4xxhp702-led-scuba-diving-flashlight-swimmingtorch-ipx8-tactical-submarine-light-i3606228274.html</v>
+      </c>
+      <c r="GZ3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/11b68020c373ac7374e60178daaee400.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="HA3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/17424c7e4f4fe8dc1f4149f743050afc.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="HB3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/feffc5d3ba5f7ebe2ccc5f990ebb8013.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="HC3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/55c739da7947afe0119af4dab17673ec.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="HD3" t="str">
+        <v>New Powerful Underwater Latern 4xXHP70.2 LED Scuba Diving Flashlight SwimmingTorch IPX8 Tactical Submarine Light</v>
+      </c>
+      <c r="HE3" t="str">
+        <v>฿1,867.28</v>
+      </c>
+      <c r="HF3" t="str">
+        <v>https://www.lazada.co.th/products/12v-ip68-waterproof-silicone-led-strip-light-1m-2-m-3000k-4000k-6000k-ww-cw-for-swimming-pool-pond-fish-bowl-underwater-tape-i3606226319.html</v>
+      </c>
+      <c r="HG3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/7fc9ccb41069aeb935235b957020fe4f.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="HH3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/bc377bafa5d6bee032ccc06f146ad510.jpg_80x80q80.jpg_.webp</v>
+      </c>
+      <c r="HI3" t="str">
+        <v>12V IP68 Waterproof Silicone LED Strip Light 1M 2 M 3000K 4000K 6000K WW CW for Swimming Pool Pond Fish Bowl Underwater Tape</v>
+      </c>
+      <c r="HJ3" t="str">
+        <v>฿1,379.04</v>
+      </c>
+      <c r="HK3" t="str">
+        <v>https://www.lazada.co.th/products/4pcs-muitc-color-rgb-bathtub-waterproof-led-lamp-with-1-light-switch-controller-and-1-adapter-12v-dc-1a-i3606219343.html</v>
+      </c>
+      <c r="HL3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/000cfff00534d30846f823bdc3dde202.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="HM3" t="str">
+        <v>4pcs Muitc Color RGB Bathtub Waterproof LED lamp with 1 light Switch Controller and 1 Adapter 12v DC 1A</v>
+      </c>
+      <c r="HN3" t="str">
+        <v>฿3,659.08</v>
+      </c>
+      <c r="HO3" t="str">
+        <v>https://www.lazada.co.th/products/usbsolar-charging-flashlight-built-in-battery-torch-with-side-lanterna-waterproof-multi-function-emergency-hand-lamp-i3606215307.html</v>
+      </c>
+      <c r="HP3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/d60042e15d5f49f03cf34e840e0f2133.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="HQ3" t="str">
+        <v>USBSolar Charging Flashlight Built-in Battery Torch with Side Lanterna Waterproof Multi-function Emergency Hand Lamp</v>
+      </c>
+      <c r="HR3" t="str">
+        <v>฿856.80</v>
+      </c>
+      <c r="HS3" t="str">
+        <v>https://www.lazada.co.th/products/new-design-led-scuba-diving-light-xhp70-50-rechargeable-underwater-flashlight-with-80m-dive-depth-i3606214323.html</v>
+      </c>
+      <c r="HT3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/88e2de29e04f4c30aa33692ea1e5bbae.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="HU3" t="str">
+        <v>New Design LED Scuba Diving Light XHP70 50 Rechargeable Underwater Flashlight with 80m Dive Depth</v>
+      </c>
+      <c r="HV3" t="str">
+        <v>฿2,758.08</v>
+      </c>
+      <c r="HW3" t="str">
+        <v>https://www.lazada.co.th/products/xm-l-t6-led-1000-lumen-diving-flashlight-i3606214296.html</v>
+      </c>
+      <c r="HX3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/35495a024647b6d3e91baadc727417dc.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="HY3" t="str">
+        <v>XM-L T6 LED 1000 Lumen Diving Flashlight</v>
+      </c>
+      <c r="HZ3" t="str">
+        <v>฿636.48</v>
+      </c>
+      <c r="IA3" t="str">
+        <v>https://www.lazada.co.th/products/battery-operated-waterproof-rgbw-submersible-led-light-underwater-night-lamp-tea-lights-for-vase-bowls-aquarium-party-wedding-i3606208409.html</v>
+      </c>
+      <c r="IB3" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/fb773c92c41e87f327da595ec9521c6d.jpg_200x200q80.jpg_.webp</v>
+      </c>
+      <c r="IC3" t="str">
+        <v>Battery Operated Waterproof RGBW Submersible LED Light Underwater Night Lamp Tea Lights for Vase Bowls Aquarium Party Wedding</v>
+      </c>
+      <c r="ID3" t="str">
+        <v>฿648.72</v>
+      </c>
+      <c r="IE3" t="str">
+        <v/>
+      </c>
+      <c r="IF3" t="str">
+        <v/>
+      </c>
+      <c r="IG3" t="str">
+        <v/>
+      </c>
+      <c r="IH3" t="str">
+        <v/>
+      </c>
+      <c r="II3" t="str">
+        <v/>
+      </c>
+      <c r="IJ3" t="str">
+        <v/>
+      </c>
+      <c r="IK3" t="str">
+        <v/>
+      </c>
+      <c r="IL3" t="str">
+        <v/>
+      </c>
+      <c r="IM3" t="str">
+        <v/>
+      </c>
+      <c r="IN3" t="str">
         <v/>
       </c>
     </row>
@@ -2347,43 +3076,286 @@
         <v/>
       </c>
       <c r="EY4" t="str">
+        <v/>
+      </c>
+      <c r="EZ4" t="str">
+        <v/>
+      </c>
+      <c r="FA4" t="str">
+        <v/>
+      </c>
+      <c r="FB4" t="str">
+        <v/>
+      </c>
+      <c r="FC4" t="str">
+        <v/>
+      </c>
+      <c r="FD4" t="str">
+        <v/>
+      </c>
+      <c r="FE4" t="str">
+        <v/>
+      </c>
+      <c r="FF4" t="str">
+        <v/>
+      </c>
+      <c r="FG4" t="str">
+        <v/>
+      </c>
+      <c r="FH4" t="str">
+        <v/>
+      </c>
+      <c r="FI4" t="str">
+        <v/>
+      </c>
+      <c r="FJ4" t="str">
+        <v/>
+      </c>
+      <c r="FK4" t="str">
+        <v/>
+      </c>
+      <c r="FL4" t="str">
+        <v/>
+      </c>
+      <c r="FM4" t="str">
+        <v/>
+      </c>
+      <c r="FN4" t="str">
+        <v/>
+      </c>
+      <c r="FO4" t="str">
+        <v/>
+      </c>
+      <c r="FP4" t="str">
+        <v/>
+      </c>
+      <c r="FQ4" t="str">
+        <v/>
+      </c>
+      <c r="FR4" t="str">
+        <v/>
+      </c>
+      <c r="FS4" t="str">
+        <v/>
+      </c>
+      <c r="FT4" t="str">
+        <v/>
+      </c>
+      <c r="FU4" t="str">
+        <v/>
+      </c>
+      <c r="FV4" t="str">
+        <v/>
+      </c>
+      <c r="FW4" t="str">
+        <v/>
+      </c>
+      <c r="FX4" t="str">
+        <v/>
+      </c>
+      <c r="FY4" t="str">
+        <v/>
+      </c>
+      <c r="FZ4" t="str">
+        <v/>
+      </c>
+      <c r="GA4" t="str">
+        <v/>
+      </c>
+      <c r="GB4" t="str">
+        <v/>
+      </c>
+      <c r="GC4" t="str">
+        <v/>
+      </c>
+      <c r="GD4" t="str">
+        <v/>
+      </c>
+      <c r="GE4" t="str">
+        <v/>
+      </c>
+      <c r="GF4" t="str">
+        <v/>
+      </c>
+      <c r="GG4" t="str">
+        <v/>
+      </c>
+      <c r="GH4" t="str">
+        <v/>
+      </c>
+      <c r="GI4" t="str">
+        <v/>
+      </c>
+      <c r="GJ4" t="str">
+        <v/>
+      </c>
+      <c r="GK4" t="str">
+        <v/>
+      </c>
+      <c r="GL4" t="str">
+        <v/>
+      </c>
+      <c r="GM4" t="str">
+        <v/>
+      </c>
+      <c r="GN4" t="str">
+        <v/>
+      </c>
+      <c r="GO4" t="str">
+        <v/>
+      </c>
+      <c r="GP4" t="str">
+        <v/>
+      </c>
+      <c r="GQ4" t="str">
+        <v/>
+      </c>
+      <c r="GR4" t="str">
+        <v/>
+      </c>
+      <c r="GS4" t="str">
+        <v/>
+      </c>
+      <c r="GT4" t="str">
+        <v/>
+      </c>
+      <c r="GU4" t="str">
+        <v/>
+      </c>
+      <c r="GV4" t="str">
+        <v/>
+      </c>
+      <c r="GW4" t="str">
+        <v/>
+      </c>
+      <c r="GX4" t="str">
+        <v/>
+      </c>
+      <c r="GY4" t="str">
+        <v/>
+      </c>
+      <c r="GZ4" t="str">
+        <v/>
+      </c>
+      <c r="HA4" t="str">
+        <v/>
+      </c>
+      <c r="HB4" t="str">
+        <v/>
+      </c>
+      <c r="HC4" t="str">
+        <v/>
+      </c>
+      <c r="HD4" t="str">
+        <v/>
+      </c>
+      <c r="HE4" t="str">
+        <v/>
+      </c>
+      <c r="HF4" t="str">
+        <v/>
+      </c>
+      <c r="HG4" t="str">
+        <v/>
+      </c>
+      <c r="HH4" t="str">
+        <v/>
+      </c>
+      <c r="HI4" t="str">
+        <v/>
+      </c>
+      <c r="HJ4" t="str">
+        <v/>
+      </c>
+      <c r="HK4" t="str">
+        <v/>
+      </c>
+      <c r="HL4" t="str">
+        <v/>
+      </c>
+      <c r="HM4" t="str">
+        <v/>
+      </c>
+      <c r="HN4" t="str">
+        <v/>
+      </c>
+      <c r="HO4" t="str">
+        <v/>
+      </c>
+      <c r="HP4" t="str">
+        <v/>
+      </c>
+      <c r="HQ4" t="str">
+        <v/>
+      </c>
+      <c r="HR4" t="str">
+        <v/>
+      </c>
+      <c r="HS4" t="str">
+        <v/>
+      </c>
+      <c r="HT4" t="str">
+        <v/>
+      </c>
+      <c r="HU4" t="str">
+        <v/>
+      </c>
+      <c r="HV4" t="str">
+        <v/>
+      </c>
+      <c r="HW4" t="str">
+        <v/>
+      </c>
+      <c r="HX4" t="str">
+        <v/>
+      </c>
+      <c r="HY4" t="str">
+        <v/>
+      </c>
+      <c r="HZ4" t="str">
+        <v/>
+      </c>
+      <c r="IA4" t="str">
+        <v/>
+      </c>
+      <c r="IB4" t="str">
+        <v/>
+      </c>
+      <c r="IC4" t="str">
+        <v/>
+      </c>
+      <c r="ID4" t="str">
+        <v/>
+      </c>
+      <c r="IE4" t="str">
         <v>1</v>
       </c>
-      <c r="EZ4" t="str">
-        <v>https://www.lazada.co.th/shop-desktop-computer-diy/</v>
-      </c>
-      <c r="FA4" t="str">
+      <c r="IF4" t="str">
+        <v>https://www.lazada.co.th/shop-point-shoot-underwater-cameras/</v>
+      </c>
+      <c r="IG4" t="str">
         <v>2</v>
       </c>
-      <c r="FB4" t="str">
-        <v>https://www.lazada.co.th/shop-desktop-computer-diy/?page=2</v>
-      </c>
-      <c r="FC4" t="str">
+      <c r="IH4" t="str">
+        <v>https://www.lazada.co.th/shop-point-shoot-underwater-cameras/?page=2</v>
+      </c>
+      <c r="II4" t="str">
         <v>3</v>
       </c>
-      <c r="FD4" t="str">
-        <v>https://www.lazada.co.th/shop-desktop-computer-diy/?page=3</v>
-      </c>
-      <c r="FE4" t="str">
+      <c r="IJ4" t="str">
+        <v>https://www.lazada.co.th/shop-point-shoot-underwater-cameras/?page=3</v>
+      </c>
+      <c r="IK4" t="str">
         <v>4</v>
       </c>
-      <c r="FF4" t="str">
-        <v>https://www.lazada.co.th/shop-desktop-computer-diy/?page=4</v>
-      </c>
-      <c r="FG4" t="str">
+      <c r="IL4" t="str">
+        <v>https://www.lazada.co.th/shop-point-shoot-underwater-cameras/?page=4</v>
+      </c>
+      <c r="IM4" t="str">
         <v>5</v>
       </c>
-      <c r="FH4" t="str">
-        <v>https://www.lazada.co.th/shop-desktop-computer-diy/?page=5</v>
-      </c>
-      <c r="FI4" t="str">
-        <v>•••</v>
-      </c>
-      <c r="FJ4" t="str">
-        <v>41</v>
-      </c>
-      <c r="FK4" t="str">
-        <v>https://www.lazada.co.th/shop-desktop-computer-diy/?page=41</v>
+      <c r="IN4" t="str">
+        <v>https://www.lazada.co.th/shop-point-shoot-underwater-cameras/?page=5</v>
       </c>
     </row>
   </sheetData>
